--- a/花.xlsx
+++ b/花.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91074817-7651-46E0-AFE9-241C8AB9ED40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3606E3D-E44A-427F-971A-228EC309B375}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2328" yWindow="8868" windowWidth="9720" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t># 满天星</t>
   </si>
@@ -28,12 +28,6 @@
     <t>baby's breath</t>
   </si>
   <si>
-    <t># 桂花</t>
-  </si>
-  <si>
-    <t>Sweet Osmanthus </t>
-  </si>
-  <si>
     <t># 康乃馨</t>
   </si>
   <si>
@@ -52,75 +46,24 @@
     <t>Chinese Narsissus </t>
   </si>
   <si>
-    <t># 荷花</t>
-  </si>
-  <si>
-    <t>Hindu Lotus </t>
-  </si>
-  <si>
-    <t># 莲花</t>
-  </si>
-  <si>
     <t># 郁金香</t>
   </si>
   <si>
     <t>tulip  </t>
   </si>
   <si>
-    <t># 凤仙花</t>
-  </si>
-  <si>
-    <t> balsam </t>
-  </si>
-  <si>
-    <t># 美人蕉</t>
-  </si>
-  <si>
-    <t>canna </t>
-  </si>
-  <si>
     <t># 向日葵</t>
   </si>
   <si>
     <t>sunflower </t>
   </si>
   <si>
-    <t># 大竺葵</t>
-  </si>
-  <si>
-    <t>geranium </t>
-  </si>
-  <si>
-    <t># 牵牛花</t>
-  </si>
-  <si>
-    <t>morning-glory </t>
-  </si>
-  <si>
-    <t># 大波斯菊</t>
-  </si>
-  <si>
-    <t>cosmos  </t>
-  </si>
-  <si>
-    <t># 三色堇</t>
-  </si>
-  <si>
-    <t>pansy</t>
-  </si>
-  <si>
     <t># 蝴蝶花</t>
   </si>
   <si>
     <t>iris </t>
   </si>
   <si>
-    <t># 风信花</t>
-  </si>
-  <si>
-    <t>hyacinth   </t>
-  </si>
-  <si>
     <t># 雏菊</t>
   </si>
   <si>
@@ -133,12 +76,6 @@
     <t>gladiolus </t>
   </si>
   <si>
-    <t># 龙舌兰</t>
-  </si>
-  <si>
-    <t>cantury plant</t>
-  </si>
-  <si>
     <t># 杜鹃花</t>
   </si>
   <si>
@@ -155,12 +92,6 @@
   </si>
   <si>
     <t>moth orchid</t>
-  </si>
-  <si>
-    <t># 石斛</t>
-  </si>
-  <si>
-    <t>dendrobium</t>
   </si>
   <si>
     <t>Rose</t>
@@ -176,6 +107,14 @@
   </si>
   <si>
     <t># 紫罗兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 凤信花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyacinth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,27 +452,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -541,7 +480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -549,7 +488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -557,7 +496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -565,7 +504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -573,164 +512,76 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
